--- a/doc/BOM_Isolator.xlsx
+++ b/doc/BOM_Isolator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\AR2ISS\AR2ISS_Isolator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A3E95-CF3A-4FF8-835D-195C0F5DD535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8821A-9254-493E-857B-EA9E84508E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D43847BB-5A3F-44CA-802B-E790A9A20505}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D43847BB-5A3F-44CA-802B-E790A9A20505}"/>
   </bookViews>
   <sheets>
     <sheet name="AR2ISS_Isolator" sheetId="2" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>SI8641BA-C-IU</t>
   </si>
   <si>
-    <t>C668205</t>
+    <t>C8963</t>
   </si>
 </sst>
 </file>

--- a/doc/BOM_Isolator.xlsx
+++ b/doc/BOM_Isolator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\AR2ISS\AR2ISS_Isolator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8821A-9254-493E-857B-EA9E84508E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC6BED1-CA06-4DD8-9913-539725572E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D43847BB-5A3F-44CA-802B-E790A9A20505}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t xml:space="preserve"> Quantity</t>
   </si>
@@ -288,9 +288,6 @@
     <t>C32677</t>
   </si>
   <si>
-    <t>BLM18KG102SN1D</t>
-  </si>
-  <si>
     <t>C85824</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
   </si>
   <si>
     <t>LCSC Part #</t>
-  </si>
-  <si>
-    <t>SI8641BA-C-IU</t>
   </si>
   <si>
     <t>C8963</t>
@@ -721,7 +715,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,7 +728,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -746,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -952,9 +946,6 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -970,7 +961,7 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -987,7 +978,7 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1019,7 +1010,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1036,7 +1027,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1053,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1084,7 +1075,7 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1101,7 +1092,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1132,9 +1123,7 @@
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -1180,7 +1169,7 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
